--- a/test/validation/Scenarios/Showcases/CombatMultitraumaValidation.xlsx
+++ b/test/validation/Scenarios/Showcases/CombatMultitraumaValidation.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\engine\test\validation\Scenarios\Showcases\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483E7209-29A9-416B-B24F-F79DD53AE5AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="15240" windowHeight="7815" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="32040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Combat Multitrauma Overview" sheetId="5" r:id="rId1"/>
@@ -14,7 +20,15 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Combat Multitrauma Breakdown'!$A$1:$AE$10</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Combat Multitrauma Overview'!$A$1:$D$45</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -22,9 +36,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="213">
   <si>
     <t>Scenario Overview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Soldier Multi-Trauma Showcase Scenario simulates the injuries that a Combat Medic or other caregiver may encounter on the battlefield. This scenario highlights the ability of the BioGears® physiology engine to simulate multiple insults occurring simultaneously. We have incorporated a tension pneumothorax with a massive hemorrhage. The tension pneumothorax is itself a combinatory insult, affecting both the respiratory and cardiovascular systems. Combining the tension pneumothorax with the blood loss from the hemorrhage pushes and eventually exceeds the limits of the homeostatic control mechanisms. </t>
   </si>
   <si>
     <t>Base Physiology</t>
@@ -171,95 +182,47 @@
 (BPM)</t>
   </si>
   <si>
-    <t>BioGears HeartRate
-(BPM)</t>
-  </si>
-  <si>
     <t>HeartStrokeVolume
 (mL/Beat)</t>
   </si>
   <si>
-    <t>BioGears HeartStrokeVolume
-(mL/Beat)</t>
-  </si>
-  <si>
     <t>BloodVolume
 (mL)</t>
   </si>
   <si>
-    <t>BioGears BloodVolume
-(mL)</t>
-  </si>
-  <si>
     <t>MeanArterialPressure
 (mmHg)</t>
   </si>
   <si>
-    <t>BioGears MeanArterialPressure
-(mmHg)</t>
-  </si>
-  <si>
     <t>SystolicArterialPressure
 (mmHg)</t>
   </si>
   <si>
-    <t>BioGears SystolicArterialPressure
-(mmHg)</t>
-  </si>
-  <si>
     <t>DiastolicArterialPressure
 (mmHg)</t>
   </si>
   <si>
-    <t>BioGears DiastolicArterialPressure
-(mmHg)</t>
-  </si>
-  <si>
     <t>CardiacOutput
 (mL/min)</t>
   </si>
   <si>
-    <t>BioGears CardiacOutput
-(mL/min)</t>
-  </si>
-  <si>
     <t>HemoglobinContent
 (g)</t>
   </si>
   <si>
-    <t>BioGears HemoglobinContent
-(g)</t>
-  </si>
-  <si>
     <t>MeanCentralVenousPressure
 (mmHg)</t>
   </si>
   <si>
-    <t>BioGears MeanCentralVenousPressure
-(mmHg)</t>
-  </si>
-  <si>
     <t>RespirationRate
 (Breaths/min)</t>
   </si>
   <si>
-    <t>BioGears RespirationRate
-(Breaths/min)</t>
-  </si>
-  <si>
     <t>OxygenSaturation
 (fraction)</t>
   </si>
   <si>
-    <t>BioGears OxygenSaturation
-(fraction)</t>
-  </si>
-  <si>
     <t>TidalVolume
-(mL)</t>
-  </si>
-  <si>
-    <t>BioGears TidalVolume
 (mL)</t>
   </si>
   <si>
@@ -678,77 +641,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>A tourniquet is applied to the hemorrhaging leg. *Note: this action only stops bleeding. There is not currently a tourniquet model in the BioGears</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">® engine. For the systemic effects of tourniquet application please see @cite deloughry2009arterial and @cite kam2001arterial. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>950 mL of blood loss</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> at the end of this segment (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Class II hemorrhage</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">). At this point </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Bleeding has stopped</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
     <t>60 - 100 [S1]</t>
   </si>
   <si>
@@ -1017,13 +909,67 @@
   </si>
   <si>
     <t>420</t>
+  </si>
+  <si>
+    <t>Engine HeartRate
+(BPM)</t>
+  </si>
+  <si>
+    <t>Engine HeartStrokeVolume
+(mL/Beat)</t>
+  </si>
+  <si>
+    <t>Engine BloodVolume
+(mL)</t>
+  </si>
+  <si>
+    <t>Engine MeanArterialPressure
+(mmHg)</t>
+  </si>
+  <si>
+    <t>Engine SystolicArterialPressure
+(mmHg)</t>
+  </si>
+  <si>
+    <t>Engine DiastolicArterialPressure
+(mmHg)</t>
+  </si>
+  <si>
+    <t>Engine CardiacOutput
+(mL/min)</t>
+  </si>
+  <si>
+    <t>Engine HemoglobinContent
+(g)</t>
+  </si>
+  <si>
+    <t>Engine MeanCentralVenousPressure
+(mmHg)</t>
+  </si>
+  <si>
+    <t>Engine RespirationRate
+(Breaths/min)</t>
+  </si>
+  <si>
+    <t>Engine OxygenSaturation
+(fraction)</t>
+  </si>
+  <si>
+    <t>Engine TidalVolume
+(mL)</t>
+  </si>
+  <si>
+    <t>A tourniquet is applied to the hemorrhaging leg. *Note: this action only stops bleeding. There is not currently a tourniquet model in the Engine® engine. For the systemic effects of tourniquet application please see @cite deloughry2009arterial and @cite kam2001arterial. 950 mL of blood loss at the end of this segment (Class II hemorrhage). At this point Bleeding has stopped.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Soldier Multi-Trauma Showcase Scenario simulates the injuries that a Combat Medic or other caregiver may encounter on the battlefield. This scenario highlights the ability of the Pulse physiology engine to simulate multiple insults occurring simultaneously. We have incorporated a tension pneumothorax with a massive hemorrhage. The tension pneumothorax is itself a combinatory insult, affecting both the respiratory and cardiovascular systems. Combining the tension pneumothorax with the blood loss from the hemorrhage pushes and eventually exceeds the limits of the homeostatic control mechanisms. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1108,13 +1054,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <i/>
@@ -1464,7 +1403,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1542,6 +1481,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1590,7 +1532,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1623,9 +1565,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1658,6 +1617,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1833,14 +1809,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:D45"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1860,7 +1836,7 @@
     </row>
     <row r="2" spans="1:4" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="78" t="s">
-        <v>1</v>
+        <v>212</v>
       </c>
       <c r="B2" s="79"/>
       <c r="C2" s="79"/>
@@ -1868,35 +1844,35 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="95.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>8</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="75" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="81"/>
       <c r="C5" s="81"/>
@@ -1904,70 +1880,70 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="79" t="s">
         <v>11</v>
-      </c>
-      <c r="B6" s="79" t="s">
-        <v>12</v>
       </c>
       <c r="C6" s="79"/>
       <c r="D6" s="80"/>
     </row>
     <row r="7" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="79" t="s">
         <v>13</v>
-      </c>
-      <c r="B7" s="79" t="s">
-        <v>14</v>
       </c>
       <c r="C7" s="79"/>
       <c r="D7" s="80"/>
     </row>
     <row r="8" spans="1:4" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="79" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" s="79" t="s">
-        <v>16</v>
       </c>
       <c r="C8" s="79"/>
       <c r="D8" s="80"/>
     </row>
     <row r="9" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="79" t="s">
         <v>17</v>
-      </c>
-      <c r="B9" s="79" t="s">
-        <v>18</v>
       </c>
       <c r="C9" s="79"/>
       <c r="D9" s="80"/>
     </row>
     <row r="10" spans="1:4" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="79" t="s">
         <v>19</v>
-      </c>
-      <c r="B10" s="79" t="s">
-        <v>20</v>
       </c>
       <c r="C10" s="79"/>
       <c r="D10" s="80"/>
     </row>
     <row r="11" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="79" t="s">
         <v>21</v>
-      </c>
-      <c r="B11" s="79" t="s">
-        <v>22</v>
       </c>
       <c r="C11" s="79"/>
       <c r="D11" s="80"/>
     </row>
     <row r="12" spans="1:4" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="83" t="s">
         <v>23</v>
-      </c>
-      <c r="B12" s="83" t="s">
-        <v>24</v>
       </c>
       <c r="C12" s="83"/>
       <c r="D12" s="84"/>
@@ -1980,7 +1956,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -1988,7 +1964,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -1999,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="73" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C16" s="73"/>
       <c r="D16" s="74"/>
@@ -2009,7 +1985,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="73" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C17" s="73"/>
       <c r="D17" s="74"/>
@@ -2019,7 +1995,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="73" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C18" s="73"/>
       <c r="D18" s="74"/>
@@ -2029,7 +2005,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="73" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C19" s="73"/>
       <c r="D19" s="74"/>
@@ -2039,7 +2015,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="73" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C20" s="73"/>
       <c r="D20" s="74"/>
@@ -2049,7 +2025,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="73" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="C21" s="73"/>
       <c r="D21" s="74"/>
@@ -2059,7 +2035,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="73" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C22" s="73"/>
       <c r="D22" s="74"/>
@@ -2070,7 +2046,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="73" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C23" s="73"/>
       <c r="D23" s="74"/>
@@ -2080,7 +2056,7 @@
         <v>9</v>
       </c>
       <c r="B24" s="73" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C24" s="73"/>
       <c r="D24" s="74"/>
@@ -2090,7 +2066,7 @@
         <v>10</v>
       </c>
       <c r="B25" s="73" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="C25" s="73"/>
       <c r="D25" s="74"/>
@@ -2100,7 +2076,7 @@
         <v>11</v>
       </c>
       <c r="B26" s="73" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C26" s="73"/>
       <c r="D26" s="74"/>
@@ -2110,7 +2086,7 @@
         <v>12</v>
       </c>
       <c r="B27" s="73" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C27" s="73"/>
       <c r="D27" s="74"/>
@@ -2120,7 +2096,7 @@
         <v>13</v>
       </c>
       <c r="B28" s="73" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="C28" s="73"/>
       <c r="D28" s="74"/>
@@ -2130,7 +2106,7 @@
         <v>14</v>
       </c>
       <c r="B29" s="73" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="C29" s="73"/>
       <c r="D29" s="74"/>
@@ -2140,7 +2116,7 @@
         <v>15</v>
       </c>
       <c r="B30" s="73" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="C30" s="73"/>
       <c r="D30" s="74"/>
@@ -2150,7 +2126,7 @@
         <v>16</v>
       </c>
       <c r="B31" s="73" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C31" s="73"/>
       <c r="D31" s="74"/>
@@ -2160,7 +2136,7 @@
         <v>17</v>
       </c>
       <c r="B32" s="73" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C32" s="73"/>
       <c r="D32" s="74"/>
@@ -2170,7 +2146,7 @@
         <v>18</v>
       </c>
       <c r="B33" s="73" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C33" s="73"/>
       <c r="D33" s="74"/>
@@ -2180,7 +2156,7 @@
         <v>19</v>
       </c>
       <c r="B34" s="73" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C34" s="73"/>
       <c r="D34" s="74"/>
@@ -2190,7 +2166,7 @@
         <v>20</v>
       </c>
       <c r="B35" s="73" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C35" s="73"/>
       <c r="D35" s="74"/>
@@ -2200,7 +2176,7 @@
         <v>21</v>
       </c>
       <c r="B36" s="73" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C36" s="73"/>
       <c r="D36" s="74"/>
@@ -2210,14 +2186,14 @@
         <v>22</v>
       </c>
       <c r="B37" s="73" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C37" s="73"/>
       <c r="D37" s="74"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -2225,20 +2201,20 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="69" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C39" s="16"/>
       <c r="D39" s="17"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="69" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C40" s="16"/>
       <c r="D40" s="17"/>
@@ -2251,7 +2227,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B42" s="25"/>
       <c r="C42" s="14"/>
@@ -2261,7 +2237,7 @@
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="26"/>
       <c r="B43" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C43" s="16"/>
       <c r="D43" s="17"/>
@@ -2270,7 +2246,7 @@
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="27"/>
       <c r="B44" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C44" s="16"/>
       <c r="D44" s="17"/>
@@ -2279,7 +2255,7 @@
     <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="28"/>
       <c r="B45" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C45" s="22"/>
       <c r="D45" s="23"/>
@@ -2287,18 +2263,10 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B29:D29"/>
@@ -2315,10 +2283,18 @@
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B16:D16"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2330,15 +2306,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AE16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="3" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC7" sqref="AC7"/>
+      <selection pane="topRight" activeCell="AA23" sqref="AA23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2379,97 +2355,97 @@
   <sheetData>
     <row r="1" spans="1:31" s="35" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="C1" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="D1" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="E1" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="F1" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="G1" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="H1" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="I1" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="J1" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="K1" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="L1" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="M1" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="N1" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="O1" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="P1" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="Q1" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="R1" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="S1" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="T1" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="U1" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="V1" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="W1" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="X1" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="Y1" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z1" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="32" t="s">
+      <c r="AA1" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="AB1" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="AC1" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="AD1" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="R1" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="S1" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="T1" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="U1" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="V1" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="W1" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="X1" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y1" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z1" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA1" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB1" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC1" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD1" s="32" t="s">
-        <v>61</v>
-      </c>
       <c r="AE1" s="34" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="45" x14ac:dyDescent="0.25">
@@ -2483,88 +2459,88 @@
         <v>60</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="F2" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="I2" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="K2" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="L2" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="M2" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="N2" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="O2" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="G2" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="H2" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="I2" s="40" t="s">
+      <c r="P2" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q2" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="J2" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="K2" s="40" t="s">
+      <c r="R2" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="S2" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="L2" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="M2" s="40" t="s">
+      <c r="T2" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="U2" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="V2" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="W2" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="N2" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="O2" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="P2" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q2" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="R2" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="S2" s="40" t="s">
+      <c r="X2" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y2" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z2" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA2" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB2" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC2" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="AD2" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="T2" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="U2" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="V2" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="W2" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="X2" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y2" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z2" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="AA2" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB2" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="AC2" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="AD2" s="44" t="s">
-        <v>166</v>
-      </c>
       <c r="AE2" s="40" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="135" x14ac:dyDescent="0.25">
@@ -2579,53 +2555,53 @@
         <v>60</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="G3" s="41" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="H3" s="70" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="I3" s="40" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="J3" s="37">
         <f>5500-350/60*C3</f>
         <v>5150</v>
       </c>
       <c r="K3" s="40" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="L3" s="46" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="M3" s="40" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="N3" s="39" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="O3" s="40" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="P3" s="39" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="Q3" s="40" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="R3" s="39" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="S3" s="40" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="T3" s="47">
         <f>851-($K$2-K3)/$K$2*851</f>
@@ -2635,34 +2611,34 @@
         <v>798</v>
       </c>
       <c r="V3" s="39" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="W3" s="52">
         <v>4</v>
       </c>
       <c r="X3" s="39" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="Y3" s="43" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="Z3" s="39" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="AA3" s="40" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="AB3" s="39" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="AC3" s="40" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="AD3" s="44" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="AE3" s="40" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="120" x14ac:dyDescent="0.25">
@@ -2677,53 +2653,53 @@
         <v>60</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="G4" s="40" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="H4" s="39" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="I4" s="43" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="J4" s="37">
         <f>J3-50/60*C4</f>
         <v>5100</v>
       </c>
       <c r="K4" s="40" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="L4" s="46" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="M4" s="40" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="N4" s="39" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="O4" s="40" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="P4" s="39" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="Q4" s="40" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="R4" s="39" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="S4" s="40" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="T4" s="47">
         <f t="shared" ref="T4:T6" si="0">851-($K$2-K4)/$K$2*851</f>
@@ -2733,34 +2709,34 @@
         <v>790</v>
       </c>
       <c r="V4" s="39" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="W4" s="52">
         <v>4</v>
       </c>
       <c r="X4" s="39" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="Y4" s="40" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="Z4" s="39" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="AA4" s="40" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="AB4" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="AC4" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD4" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE4" s="40" t="s">
         <v>183</v>
-      </c>
-      <c r="AC4" s="40" t="s">
-        <v>192</v>
-      </c>
-      <c r="AD4" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="AE4" s="40" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2775,53 +2751,53 @@
         <v>240</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G5" s="40" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="H5" s="39" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="J5" s="37">
         <f>J4-50/60*C5</f>
         <v>4900</v>
       </c>
       <c r="K5" s="40" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="L5" s="39" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="M5" s="40" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="N5" s="39" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="O5" s="40" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="P5" s="39" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="Q5" s="40" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="R5" s="39" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="S5" s="41" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="T5" s="47">
         <f t="shared" si="0"/>
@@ -2831,34 +2807,34 @@
         <v>759</v>
       </c>
       <c r="V5" s="39" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="W5" s="71">
         <v>4</v>
       </c>
       <c r="X5" s="44" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="Y5" s="40" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="Z5" s="39" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="AA5" s="40" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="AB5" s="44" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="AC5" s="41" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="AD5" s="44" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="AE5" s="43" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="165" x14ac:dyDescent="0.25">
@@ -2873,22 +2849,22 @@
         <v>30</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>127</v>
+        <v>211</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="H6" s="44" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="I6" s="40" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="J6" s="37">
         <f>J5</f>
@@ -2898,28 +2874,28 @@
         <v>5200</v>
       </c>
       <c r="L6" s="39" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="M6" s="40" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="N6" s="51" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="O6" s="40" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="P6" s="51" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="Q6" s="40" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="R6" s="39" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="S6" s="40" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="T6" s="47">
         <f t="shared" si="0"/>
@@ -2929,34 +2905,34 @@
         <v>759</v>
       </c>
       <c r="V6" s="39" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="W6" s="71">
         <v>4.2</v>
       </c>
       <c r="X6" s="44" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="Y6" s="40" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="Z6" s="44" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="AA6" s="40" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="AB6" s="44" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="AC6" s="41" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="AD6" s="44" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="AE6" s="43" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="90" x14ac:dyDescent="0.25">
@@ -2971,53 +2947,53 @@
         <v>120</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="H7" s="44" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="I7" s="40" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="J7" s="37">
         <f>J6+100/60*C7</f>
         <v>5100</v>
       </c>
       <c r="K7" s="40" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="L7" s="39" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="M7" s="40" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="N7" s="39" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="O7" s="40" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="P7" s="44" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="Q7" s="41" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="R7" s="44" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="S7" s="40" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="T7" s="47">
         <f>T6</f>
@@ -3027,34 +3003,34 @@
         <v>759</v>
       </c>
       <c r="V7" s="44" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="W7" s="49">
         <v>4.5</v>
       </c>
       <c r="X7" s="44" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="Y7" s="40" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="Z7" s="44" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="AA7" s="40" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="AB7" s="44" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="AC7" s="43" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="AD7" s="44" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="AE7" s="43" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="60" x14ac:dyDescent="0.25">
@@ -3069,52 +3045,52 @@
         <v>160</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F8" s="53" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="G8" s="43" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="H8" s="44" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="I8" s="40" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="J8" s="37">
         <v>5600</v>
       </c>
       <c r="K8" s="40" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="L8" s="53" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="M8" s="40" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="N8" s="53" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="O8" s="40" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="P8" s="53" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="Q8" s="40" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="R8" s="44" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="S8" s="43" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="T8" s="47">
         <f>T7</f>
@@ -3124,34 +3100,34 @@
         <v>759</v>
       </c>
       <c r="V8" s="44" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="W8" s="49">
         <v>4.5</v>
       </c>
       <c r="X8" s="53" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="Y8" s="40" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="Z8" s="39" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="AA8" s="40" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="AB8" s="44" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="AC8" s="43" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="AD8" s="44" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="AE8" s="43" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
@@ -3162,7 +3138,7 @@
       </c>
       <c r="C9" s="37"/>
       <c r="D9" s="38" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="E9" s="54"/>
       <c r="F9" s="55"/>
@@ -3198,11 +3174,11 @@
       <c r="C10" s="85"/>
       <c r="D10" s="85"/>
       <c r="J10" s="1" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="S10" s="60"/>
       <c r="T10" s="1" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">

--- a/test/validation/Scenarios/Showcases/CombatMultitraumaValidation.xlsx
+++ b/test/validation/Scenarios/Showcases/CombatMultitraumaValidation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\engine\test\validation\Scenarios\Showcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\Pulse_Documentation\source\test\validation\Scenarios\Showcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483E7209-29A9-416B-B24F-F79DD53AE5AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CF8897-575E-4511-A3DF-DFEA6590E7AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="32040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16080" yWindow="2415" windowWidth="13920" windowHeight="25350" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Combat Multitrauma Overview" sheetId="5" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="209">
   <si>
     <t>Scenario Overview</t>
   </si>
@@ -407,9 +407,6 @@
     <t>5500 [7]</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>16</t>
   </si>
   <si>
@@ -442,9 +439,6 @@
   </si>
   <si>
     <t>0.96</t>
-  </si>
-  <si>
-    <t>0.94</t>
   </si>
   <si>
     <t>2000</t>
@@ -647,30 +641,12 @@
     <t>77</t>
   </si>
   <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
     <t>86</t>
   </si>
   <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
     <t>102</t>
   </si>
   <si>
-    <t>115</t>
-  </si>
-  <si>
     <t>5591</t>
   </si>
   <si>
@@ -689,34 +665,10 @@
     <t>73</t>
   </si>
   <si>
-    <t>93</t>
-  </si>
-  <si>
     <t>110</t>
   </si>
   <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
     <t>NC or Slight Increase [S2]</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>6628</t>
-  </si>
-  <si>
-    <t>6243</t>
   </si>
   <si>
     <t>851</t>
@@ -842,36 +794,12 @@
     <t>Van Leeuwen, Anne M., and Mickey Lynn Bladh. Comprehensive Handbook of Laboratory &amp; Diagnostic Tests with Nursing Implications. FA Davis, 2015. P471</t>
   </si>
   <si>
-    <t>598</t>
-  </si>
-  <si>
-    <t>321</t>
-  </si>
-  <si>
-    <t>395</t>
-  </si>
-  <si>
     <t>400</t>
   </si>
   <si>
-    <t>2655</t>
-  </si>
-  <si>
-    <t>1950</t>
-  </si>
-  <si>
     <t>~90% of Baseline [S2]</t>
   </si>
   <si>
-    <t>1982</t>
-  </si>
-  <si>
-    <t>1960</t>
-  </si>
-  <si>
-    <t>1926</t>
-  </si>
-  <si>
     <t>65</t>
   </si>
   <si>
@@ -884,9 +812,6 @@
     <t>90</t>
   </si>
   <si>
-    <t>110.</t>
-  </si>
-  <si>
     <t>75</t>
   </si>
   <si>
@@ -896,19 +821,7 @@
     <t>6600</t>
   </si>
   <si>
-    <t>6250</t>
-  </si>
-  <si>
-    <t>6500</t>
-  </si>
-  <si>
-    <t>7000</t>
-  </si>
-  <si>
     <t>450</t>
-  </si>
-  <si>
-    <t>420</t>
   </si>
   <si>
     <t>Engine HeartRate
@@ -963,6 +876,81 @@
   </si>
   <si>
     <t xml:space="preserve">The Soldier Multi-Trauma Showcase Scenario simulates the injuries that a Combat Medic or other caregiver may encounter on the battlefield. This scenario highlights the ability of the Pulse physiology engine to simulate multiple insults occurring simultaneously. We have incorporated a tension pneumothorax with a massive hemorrhage. The tension pneumothorax is itself a combinatory insult, affecting both the respiratory and cardiovascular systems. Combining the tension pneumothorax with the blood loss from the hemorrhage pushes and eventually exceeds the limits of the homeostatic control mechanisms. </t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>5200</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>5500</t>
+  </si>
+  <si>
+    <t>6000</t>
+  </si>
+  <si>
+    <t>16.5</t>
+  </si>
+  <si>
+    <t>22.5</t>
+  </si>
+  <si>
+    <t>0.92</t>
+  </si>
+  <si>
+    <t>0.87</t>
+  </si>
+  <si>
+    <t>460</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>2600</t>
+  </si>
+  <si>
+    <t>2100</t>
+  </si>
+  <si>
+    <t>2200</t>
   </si>
 </sst>
 </file>
@@ -1242,7 +1230,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1358,9 +1346,6 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1422,9 +1407,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1815,7 +1797,7 @@
   </sheetPr>
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
@@ -1827,20 +1809,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="77"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="75"/>
     </row>
     <row r="2" spans="1:4" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
-        <v>212</v>
-      </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="80"/>
+      <c r="A2" s="76" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="78"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1871,82 +1853,82 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="82"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="80"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="79" t="s">
+      <c r="B6" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="80"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="78"/>
     </row>
     <row r="7" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="80"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="78"/>
     </row>
     <row r="8" spans="1:4" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="80"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="78"/>
     </row>
     <row r="9" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="80"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="78"/>
     </row>
     <row r="10" spans="1:4" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="79"/>
-      <c r="D10" s="80"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="78"/>
     </row>
     <row r="11" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="79" t="s">
+      <c r="B11" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="79"/>
-      <c r="D11" s="80"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="78"/>
     </row>
     <row r="12" spans="1:4" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="83" t="s">
+      <c r="B12" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="83"/>
-      <c r="D12" s="84"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="82"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
@@ -1971,225 +1953,225 @@
       <c r="D15" s="17"/>
     </row>
     <row r="16" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="72">
+      <c r="A16" s="70">
         <v>1</v>
       </c>
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="73"/>
-      <c r="D16" s="74"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="72"/>
     </row>
     <row r="17" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="72">
+      <c r="A17" s="70">
         <v>2</v>
       </c>
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="73"/>
-      <c r="D17" s="74"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="72"/>
     </row>
     <row r="18" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="72">
+      <c r="A18" s="70">
         <v>3</v>
       </c>
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="73"/>
-      <c r="D18" s="74"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="72"/>
     </row>
     <row r="19" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="72">
+      <c r="A19" s="70">
         <v>4</v>
       </c>
-      <c r="B19" s="73" t="s">
+      <c r="B19" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="73"/>
-      <c r="D19" s="74"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="72"/>
     </row>
     <row r="20" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="72">
+      <c r="A20" s="70">
         <v>5</v>
       </c>
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="73"/>
-      <c r="D20" s="74"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="72"/>
     </row>
     <row r="21" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="72">
+      <c r="A21" s="70">
         <v>6</v>
       </c>
-      <c r="B21" s="73" t="s">
-        <v>171</v>
-      </c>
-      <c r="C21" s="73"/>
-      <c r="D21" s="74"/>
+      <c r="B21" s="71" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21" s="71"/>
+      <c r="D21" s="72"/>
     </row>
     <row r="22" spans="1:5" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="72">
+      <c r="A22" s="70">
         <v>7</v>
       </c>
-      <c r="B22" s="73" t="s">
+      <c r="B22" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="73"/>
-      <c r="D22" s="74"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="72"/>
       <c r="E22" s="19"/>
     </row>
     <row r="23" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="72">
+      <c r="A23" s="70">
         <v>8</v>
       </c>
-      <c r="B23" s="73" t="s">
+      <c r="B23" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="73"/>
-      <c r="D23" s="74"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="72"/>
     </row>
     <row r="24" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="72">
+      <c r="A24" s="70">
         <v>9</v>
       </c>
-      <c r="B24" s="73" t="s">
+      <c r="B24" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="73"/>
-      <c r="D24" s="74"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="72"/>
     </row>
     <row r="25" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="72">
+      <c r="A25" s="70">
         <v>10</v>
       </c>
-      <c r="B25" s="73" t="s">
-        <v>172</v>
-      </c>
-      <c r="C25" s="73"/>
-      <c r="D25" s="74"/>
+      <c r="B25" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="C25" s="71"/>
+      <c r="D25" s="72"/>
     </row>
     <row r="26" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="72">
+      <c r="A26" s="70">
         <v>11</v>
       </c>
-      <c r="B26" s="73" t="s">
+      <c r="B26" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="73"/>
-      <c r="D26" s="74"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="72"/>
     </row>
     <row r="27" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="72">
+      <c r="A27" s="70">
         <v>12</v>
       </c>
-      <c r="B27" s="73" t="s">
+      <c r="B27" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="73"/>
-      <c r="D27" s="74"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="72"/>
     </row>
     <row r="28" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="72">
+      <c r="A28" s="70">
         <v>13</v>
       </c>
-      <c r="B28" s="73" t="s">
-        <v>173</v>
-      </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="74"/>
+      <c r="B28" s="71" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" s="71"/>
+      <c r="D28" s="72"/>
     </row>
     <row r="29" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="72">
+      <c r="A29" s="70">
         <v>14</v>
       </c>
-      <c r="B29" s="73" t="s">
-        <v>174</v>
-      </c>
-      <c r="C29" s="73"/>
-      <c r="D29" s="74"/>
+      <c r="B29" s="71" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29" s="71"/>
+      <c r="D29" s="72"/>
     </row>
     <row r="30" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="72">
+      <c r="A30" s="70">
         <v>15</v>
       </c>
-      <c r="B30" s="73" t="s">
-        <v>175</v>
-      </c>
-      <c r="C30" s="73"/>
-      <c r="D30" s="74"/>
+      <c r="B30" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" s="71"/>
+      <c r="D30" s="72"/>
     </row>
     <row r="31" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="72">
+      <c r="A31" s="70">
         <v>16</v>
       </c>
-      <c r="B31" s="73" t="s">
+      <c r="B31" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="73"/>
-      <c r="D31" s="74"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="72"/>
     </row>
     <row r="32" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="72">
+      <c r="A32" s="70">
         <v>17</v>
       </c>
-      <c r="B32" s="73" t="s">
+      <c r="B32" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="73"/>
-      <c r="D32" s="74"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="72"/>
     </row>
     <row r="33" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="72">
+      <c r="A33" s="70">
         <v>18</v>
       </c>
-      <c r="B33" s="73" t="s">
+      <c r="B33" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="73"/>
-      <c r="D33" s="74"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="72"/>
     </row>
     <row r="34" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="72">
+      <c r="A34" s="70">
         <v>19</v>
       </c>
-      <c r="B34" s="73" t="s">
+      <c r="B34" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="73"/>
-      <c r="D34" s="74"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="72"/>
     </row>
     <row r="35" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="72">
+      <c r="A35" s="70">
         <v>20</v>
       </c>
-      <c r="B35" s="73" t="s">
+      <c r="B35" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="73"/>
-      <c r="D35" s="74"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="72"/>
     </row>
     <row r="36" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="72">
+      <c r="A36" s="70">
         <v>21</v>
       </c>
-      <c r="B36" s="73" t="s">
+      <c r="B36" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="73"/>
-      <c r="D36" s="74"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="72"/>
     </row>
     <row r="37" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="72">
+      <c r="A37" s="70">
         <v>22</v>
       </c>
-      <c r="B37" s="73" t="s">
+      <c r="B37" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="73"/>
-      <c r="D37" s="74"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="72"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
@@ -2200,7 +2182,7 @@
       <c r="D38" s="17"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="69" t="s">
+      <c r="A39" s="68" t="s">
         <v>57</v>
       </c>
       <c r="B39" s="16" t="s">
@@ -2210,7 +2192,7 @@
       <c r="D39" s="17"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="69" t="s">
+      <c r="A40" s="68" t="s">
         <v>59</v>
       </c>
       <c r="B40" s="20" t="s">
@@ -2263,11 +2245,18 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B16:D16"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B18:D18"/>
@@ -2283,18 +2272,11 @@
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2312,9 +2294,9 @@
   </sheetPr>
   <dimension ref="A1:AE16"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA23" sqref="AA23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="AB1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AH5" sqref="AH5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2324,32 +2306,32 @@
     <col min="3" max="3" width="12.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="37.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="39.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="38.140625" style="58" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="59" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" style="58" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" style="60" customWidth="1"/>
+    <col min="6" max="6" width="38.140625" style="57" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="58" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" style="57" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" style="59" customWidth="1"/>
     <col min="10" max="10" width="20" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" style="60" customWidth="1"/>
-    <col min="12" max="12" width="28.28515625" style="61" customWidth="1"/>
-    <col min="13" max="13" width="18.85546875" style="62" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" style="61" customWidth="1"/>
-    <col min="15" max="15" width="22" style="62" customWidth="1"/>
-    <col min="16" max="16" width="23" style="61" customWidth="1"/>
-    <col min="17" max="17" width="22" style="62" customWidth="1"/>
-    <col min="18" max="18" width="29.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.85546875" style="62" customWidth="1"/>
-    <col min="20" max="20" width="17" style="63" customWidth="1"/>
-    <col min="21" max="21" width="17" style="62" customWidth="1"/>
-    <col min="22" max="22" width="27.140625" style="61" customWidth="1"/>
-    <col min="23" max="23" width="20.42578125" style="62" customWidth="1"/>
-    <col min="24" max="24" width="29.7109375" style="61" customWidth="1"/>
-    <col min="25" max="25" width="18.28515625" style="62" customWidth="1"/>
-    <col min="26" max="26" width="27" style="61" customWidth="1"/>
-    <col min="27" max="27" width="23.140625" style="62" customWidth="1"/>
-    <col min="28" max="28" width="20.28515625" style="61" customWidth="1"/>
-    <col min="29" max="29" width="17.28515625" style="62" customWidth="1"/>
-    <col min="30" max="30" width="25.85546875" style="61" customWidth="1"/>
-    <col min="31" max="31" width="20" style="62" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" style="59" customWidth="1"/>
+    <col min="12" max="12" width="28.28515625" style="60" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" style="61" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="60" customWidth="1"/>
+    <col min="15" max="15" width="22" style="61" customWidth="1"/>
+    <col min="16" max="16" width="23" style="60" customWidth="1"/>
+    <col min="17" max="17" width="22" style="61" customWidth="1"/>
+    <col min="18" max="18" width="29.140625" style="60" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.85546875" style="61" customWidth="1"/>
+    <col min="20" max="20" width="17" style="62" customWidth="1"/>
+    <col min="21" max="21" width="17" style="61" customWidth="1"/>
+    <col min="22" max="22" width="27.140625" style="60" customWidth="1"/>
+    <col min="23" max="23" width="20.42578125" style="61" customWidth="1"/>
+    <col min="24" max="24" width="29.7109375" style="60" customWidth="1"/>
+    <col min="25" max="25" width="18.28515625" style="61" customWidth="1"/>
+    <col min="26" max="26" width="27" style="60" customWidth="1"/>
+    <col min="27" max="27" width="23.140625" style="61" customWidth="1"/>
+    <col min="28" max="28" width="20.28515625" style="60" customWidth="1"/>
+    <col min="29" max="29" width="17.28515625" style="61" customWidth="1"/>
+    <col min="30" max="30" width="25.85546875" style="60" customWidth="1"/>
+    <col min="31" max="31" width="20" style="61" customWidth="1"/>
     <col min="32" max="16384" width="9.140625" style="45"/>
   </cols>
   <sheetData>
@@ -2373,79 +2355,79 @@
         <v>36</v>
       </c>
       <c r="G1" s="33" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="H1" s="32" t="s">
         <v>37</v>
       </c>
       <c r="I1" s="34" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="J1" s="31" t="s">
         <v>38</v>
       </c>
       <c r="K1" s="34" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="L1" s="32" t="s">
         <v>39</v>
       </c>
       <c r="M1" s="34" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="N1" s="32" t="s">
         <v>40</v>
       </c>
       <c r="O1" s="34" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="P1" s="32" t="s">
         <v>41</v>
       </c>
       <c r="Q1" s="34" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="R1" s="32" t="s">
         <v>42</v>
       </c>
       <c r="S1" s="34" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="T1" s="31" t="s">
         <v>43</v>
       </c>
       <c r="U1" s="34" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="V1" s="32" t="s">
         <v>44</v>
       </c>
       <c r="W1" s="34" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="X1" s="32" t="s">
         <v>45</v>
       </c>
       <c r="Y1" s="34" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="Z1" s="32" t="s">
         <v>46</v>
       </c>
       <c r="AA1" s="34" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="AB1" s="32" t="s">
         <v>47</v>
       </c>
       <c r="AC1" s="34" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="AD1" s="32" t="s">
         <v>48</v>
       </c>
       <c r="AE1" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="45" x14ac:dyDescent="0.25">
@@ -2459,88 +2441,88 @@
         <v>60</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E2" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="G2" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="G2" s="40" t="s">
-        <v>119</v>
-      </c>
       <c r="H2" s="39" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J2" s="37" t="s">
         <v>91</v>
       </c>
       <c r="K2" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="L2" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="M2" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="N2" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="O2" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="P2" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q2" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="R2" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="S2" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="T2" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="U2" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="L2" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="M2" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="N2" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="O2" s="40" t="s">
+      <c r="V2" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="W2" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="X2" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="P2" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q2" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="R2" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="S2" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="T2" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="U2" s="40" t="s">
+      <c r="Y2" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z2" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="V2" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="W2" s="40" t="s">
-        <v>141</v>
-      </c>
-      <c r="X2" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y2" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z2" s="39" t="s">
-        <v>156</v>
-      </c>
       <c r="AA2" s="40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AB2" s="39" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="AC2" s="40" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="AD2" s="44" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="AE2" s="40" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="135" x14ac:dyDescent="0.25">
@@ -2555,53 +2537,53 @@
         <v>60</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="G3" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="H3" s="70" t="s">
-        <v>98</v>
+        <v>184</v>
+      </c>
+      <c r="H3" s="69" t="s">
+        <v>97</v>
       </c>
       <c r="I3" s="40" t="s">
-        <v>116</v>
+        <v>185</v>
       </c>
       <c r="J3" s="37">
         <f>5500-350/60*C3</f>
         <v>5150</v>
       </c>
       <c r="K3" s="40" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="L3" s="46" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="M3" s="40" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="N3" s="39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O3" s="40" t="s">
-        <v>131</v>
+        <v>192</v>
       </c>
       <c r="P3" s="39" t="s">
         <v>81</v>
       </c>
       <c r="Q3" s="40" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="R3" s="39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S3" s="40" t="s">
-        <v>139</v>
+        <v>195</v>
       </c>
       <c r="T3" s="47">
         <f>851-($K$2-K3)/$K$2*851</f>
@@ -2611,34 +2593,34 @@
         <v>798</v>
       </c>
       <c r="V3" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="W3" s="52">
-        <v>4</v>
+        <v>132</v>
+      </c>
+      <c r="W3" s="40">
+        <v>5.25</v>
       </c>
       <c r="X3" s="39" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="Y3" s="43" t="s">
-        <v>92</v>
+        <v>199</v>
       </c>
       <c r="Z3" s="39" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="AA3" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB3" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC3" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="AD3" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE3" s="41" t="s">
         <v>102</v>
-      </c>
-      <c r="AB3" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="AC3" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="AD3" s="44" t="s">
-        <v>143</v>
-      </c>
-      <c r="AE3" s="40" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="120" x14ac:dyDescent="0.25">
@@ -2653,53 +2635,53 @@
         <v>60</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>49</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="G4" s="40" t="s">
-        <v>121</v>
+        <v>142</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>184</v>
       </c>
       <c r="H4" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="I4" s="43" t="s">
-        <v>117</v>
+      <c r="I4" s="40" t="s">
+        <v>186</v>
       </c>
       <c r="J4" s="37">
         <f>J3-50/60*C4</f>
         <v>5100</v>
       </c>
       <c r="K4" s="40" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="L4" s="46" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="M4" s="40" t="s">
-        <v>127</v>
+        <v>189</v>
       </c>
       <c r="N4" s="39" t="s">
         <v>81</v>
       </c>
       <c r="O4" s="40" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="P4" s="39" t="s">
         <v>81</v>
       </c>
       <c r="Q4" s="40" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="R4" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="S4" s="40" t="s">
-        <v>193</v>
+        <v>126</v>
+      </c>
+      <c r="S4" s="41" t="s">
+        <v>196</v>
       </c>
       <c r="T4" s="47">
         <f t="shared" ref="T4:T6" si="0">851-($K$2-K4)/$K$2*851</f>
@@ -2709,34 +2691,34 @@
         <v>790</v>
       </c>
       <c r="V4" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="W4" s="52">
-        <v>4</v>
+        <v>132</v>
+      </c>
+      <c r="W4" s="40">
+        <v>6</v>
       </c>
       <c r="X4" s="39" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="Y4" s="40" t="s">
-        <v>94</v>
+        <v>200</v>
       </c>
       <c r="Z4" s="39" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="AA4" s="40" t="s">
-        <v>103</v>
+        <v>202</v>
       </c>
       <c r="AB4" s="39" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="AC4" s="40" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="AD4" s="44" t="s">
-        <v>143</v>
-      </c>
-      <c r="AE4" s="40" t="s">
-        <v>183</v>
+        <v>127</v>
+      </c>
+      <c r="AE4" s="41" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2751,7 +2733,7 @@
         <v>240</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E5" s="38" t="s">
         <v>50</v>
@@ -2766,38 +2748,38 @@
         <v>79</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J5" s="37">
         <f>J4-50/60*C5</f>
         <v>4900</v>
       </c>
       <c r="K5" s="40" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="L5" s="39" t="s">
         <v>80</v>
       </c>
       <c r="M5" s="40" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="N5" s="39" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="O5" s="40" t="s">
-        <v>133</v>
+        <v>193</v>
       </c>
       <c r="P5" s="39" t="s">
         <v>81</v>
       </c>
       <c r="Q5" s="40" t="s">
-        <v>191</v>
+        <v>113</v>
       </c>
       <c r="R5" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="S5" s="41" t="s">
-        <v>194</v>
+        <v>99</v>
+      </c>
+      <c r="S5" s="40" t="s">
+        <v>197</v>
       </c>
       <c r="T5" s="47">
         <f t="shared" si="0"/>
@@ -2809,32 +2791,32 @@
       <c r="V5" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="W5" s="71">
-        <v>4</v>
+      <c r="W5" s="40">
+        <v>4.75</v>
       </c>
       <c r="X5" s="44" t="s">
         <v>83</v>
       </c>
       <c r="Y5" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z5" s="39" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="AA5" s="40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AB5" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="AC5" s="41" t="s">
-        <v>197</v>
+      <c r="AC5" s="40" t="s">
+        <v>160</v>
       </c>
       <c r="AD5" s="44" t="s">
-        <v>182</v>
-      </c>
-      <c r="AE5" s="43" t="s">
-        <v>184</v>
+        <v>161</v>
+      </c>
+      <c r="AE5" s="40" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="165" x14ac:dyDescent="0.25">
@@ -2849,53 +2831,53 @@
         <v>30</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H6" s="44" t="s">
         <v>52</v>
       </c>
       <c r="I6" s="40" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J6" s="37">
         <f>J5</f>
         <v>4900</v>
       </c>
-      <c r="K6" s="50">
+      <c r="K6" s="49">
         <v>5200</v>
       </c>
       <c r="L6" s="39" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="M6" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="N6" s="51" t="s">
-        <v>167</v>
+        <v>165</v>
+      </c>
+      <c r="N6" s="50" t="s">
+        <v>151</v>
       </c>
       <c r="O6" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="P6" s="51" t="s">
-        <v>167</v>
+        <v>193</v>
+      </c>
+      <c r="P6" s="50" t="s">
+        <v>151</v>
       </c>
       <c r="Q6" s="40" t="s">
-        <v>191</v>
+        <v>113</v>
       </c>
       <c r="R6" s="39" t="s">
         <v>53</v>
       </c>
       <c r="S6" s="40" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="T6" s="47">
         <f t="shared" si="0"/>
@@ -2907,32 +2889,32 @@
       <c r="V6" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="W6" s="71">
-        <v>4.2</v>
+      <c r="W6" s="40">
+        <v>4.75</v>
       </c>
       <c r="X6" s="44" t="s">
         <v>83</v>
       </c>
       <c r="Y6" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z6" s="44" t="s">
         <v>83</v>
       </c>
       <c r="AA6" s="40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AB6" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="AC6" s="41" t="s">
-        <v>198</v>
+      <c r="AC6" s="40" t="s">
+        <v>160</v>
       </c>
       <c r="AD6" s="44" t="s">
-        <v>182</v>
-      </c>
-      <c r="AE6" s="43" t="s">
-        <v>184</v>
+        <v>161</v>
+      </c>
+      <c r="AE6" s="40" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="90" x14ac:dyDescent="0.25">
@@ -2947,7 +2929,7 @@
         <v>120</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E7" s="38" t="s">
         <v>54</v>
@@ -2955,45 +2937,45 @@
       <c r="F7" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="G7" s="40" t="s">
-        <v>120</v>
+      <c r="G7" s="41" t="s">
+        <v>122</v>
       </c>
       <c r="H7" s="44" t="s">
         <v>85</v>
       </c>
       <c r="I7" s="40" t="s">
-        <v>118</v>
+        <v>188</v>
       </c>
       <c r="J7" s="37">
         <f>J6+100/60*C7</f>
         <v>5100</v>
       </c>
       <c r="K7" s="40" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L7" s="39" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="M7" s="40" t="s">
-        <v>127</v>
+        <v>190</v>
       </c>
       <c r="N7" s="39" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="O7" s="40" t="s">
-        <v>136</v>
+        <v>193</v>
       </c>
       <c r="P7" s="44" t="s">
         <v>86</v>
       </c>
       <c r="Q7" s="41" t="s">
-        <v>191</v>
+        <v>113</v>
       </c>
       <c r="R7" s="44" t="s">
         <v>86</v>
       </c>
       <c r="S7" s="40" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="T7" s="47">
         <f>T6</f>
@@ -3005,32 +2987,32 @@
       <c r="V7" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="W7" s="49">
-        <v>4.5</v>
+      <c r="W7" s="51">
+        <v>5</v>
       </c>
       <c r="X7" s="44" t="s">
         <v>83</v>
       </c>
       <c r="Y7" s="40" t="s">
-        <v>92</v>
+        <v>199</v>
       </c>
       <c r="Z7" s="44" t="s">
         <v>83</v>
       </c>
       <c r="AA7" s="40" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AB7" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="AC7" s="43" t="s">
-        <v>179</v>
+      <c r="AC7" s="40" t="s">
+        <v>160</v>
       </c>
       <c r="AD7" s="44" t="s">
-        <v>182</v>
-      </c>
-      <c r="AE7" s="43" t="s">
-        <v>185</v>
+        <v>161</v>
+      </c>
+      <c r="AE7" s="40" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="60" x14ac:dyDescent="0.25">
@@ -3045,52 +3027,52 @@
         <v>160</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E8" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="53" t="s">
-        <v>162</v>
-      </c>
-      <c r="G8" s="43" t="s">
-        <v>123</v>
+      <c r="F8" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>165</v>
       </c>
       <c r="H8" s="44" t="s">
         <v>88</v>
       </c>
       <c r="I8" s="40" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="J8" s="37">
         <v>5600</v>
       </c>
       <c r="K8" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="L8" s="53" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="L8" s="52" t="s">
+        <v>147</v>
       </c>
       <c r="M8" s="40" t="s">
-        <v>189</v>
-      </c>
-      <c r="N8" s="53" t="s">
-        <v>163</v>
+        <v>191</v>
+      </c>
+      <c r="N8" s="52" t="s">
+        <v>147</v>
       </c>
       <c r="O8" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="P8" s="53" t="s">
-        <v>163</v>
+        <v>115</v>
+      </c>
+      <c r="P8" s="52" t="s">
+        <v>147</v>
       </c>
       <c r="Q8" s="40" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="R8" s="44" t="s">
         <v>89</v>
       </c>
       <c r="S8" s="43" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="T8" s="47">
         <f>T7</f>
@@ -3102,32 +3084,32 @@
       <c r="V8" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="W8" s="49">
-        <v>4.5</v>
-      </c>
-      <c r="X8" s="53" t="s">
-        <v>164</v>
+      <c r="W8" s="51">
+        <v>5.5</v>
+      </c>
+      <c r="X8" s="52" t="s">
+        <v>148</v>
       </c>
       <c r="Y8" s="40" t="s">
         <v>51</v>
       </c>
       <c r="Z8" s="39" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="AA8" s="40" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AB8" s="44" t="s">
         <v>90</v>
       </c>
       <c r="AC8" s="43" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="AD8" s="44" t="s">
-        <v>182</v>
-      </c>
-      <c r="AE8" s="43" t="s">
-        <v>104</v>
+        <v>161</v>
+      </c>
+      <c r="AE8" s="40" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
@@ -3140,82 +3122,82 @@
       <c r="D9" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="54"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="55"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="55"/>
-      <c r="W9" s="56"/>
-      <c r="X9" s="55"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="55"/>
-      <c r="AA9" s="56"/>
-      <c r="AB9" s="55"/>
-      <c r="AC9" s="56"/>
-      <c r="AD9" s="55"/>
-      <c r="AE9" s="56"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="54"/>
+      <c r="W9" s="55"/>
+      <c r="X9" s="54"/>
+      <c r="Y9" s="55"/>
+      <c r="Z9" s="54"/>
+      <c r="AA9" s="55"/>
+      <c r="AB9" s="54"/>
+      <c r="AC9" s="55"/>
+      <c r="AD9" s="54"/>
+      <c r="AE9" s="55"/>
     </row>
     <row r="10" spans="1:31" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="85"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
+      <c r="A10" s="83"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
       <c r="J10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="S10" s="59"/>
+      <c r="T10" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="S10" s="60"/>
-      <c r="T10" s="1" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" s="64"/>
-      <c r="B11" s="64"/>
+      <c r="A11" s="63"/>
+      <c r="B11" s="63"/>
       <c r="C11" s="45"/>
       <c r="D11" s="45"/>
-      <c r="P11" s="65"/>
-      <c r="R11" s="65"/>
-      <c r="T11" s="66"/>
+      <c r="P11" s="64"/>
+      <c r="R11" s="64"/>
+      <c r="T11" s="65"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="C12" s="67"/>
-      <c r="D12" s="68"/>
-      <c r="P12" s="65"/>
-      <c r="R12" s="65"/>
-      <c r="T12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="67"/>
+      <c r="P12" s="64"/>
+      <c r="R12" s="64"/>
+      <c r="T12" s="65"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="P13" s="65"/>
-      <c r="R13" s="65"/>
-      <c r="T13" s="66"/>
+      <c r="P13" s="64"/>
+      <c r="R13" s="64"/>
+      <c r="T13" s="65"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="P14" s="65"/>
-      <c r="R14" s="65"/>
-      <c r="T14" s="66"/>
+      <c r="P14" s="64"/>
+      <c r="R14" s="64"/>
+      <c r="T14" s="65"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="P15" s="65"/>
-      <c r="R15" s="65"/>
-      <c r="T15" s="66"/>
+      <c r="P15" s="64"/>
+      <c r="R15" s="64"/>
+      <c r="T15" s="65"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="P16" s="65"/>
-      <c r="R16" s="65"/>
-      <c r="T16" s="66"/>
+      <c r="P16" s="64"/>
+      <c r="R16" s="64"/>
+      <c r="T16" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="1">
